--- a/Code/Results/Cases/Case_3_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9936317933776004</v>
+        <v>1.022893260322361</v>
       </c>
       <c r="D2">
-        <v>1.018006549377326</v>
+        <v>1.03435723317423</v>
       </c>
       <c r="E2">
-        <v>1.000965937143763</v>
+        <v>1.02358069974562</v>
       </c>
       <c r="F2">
-        <v>1.024346955311257</v>
+        <v>1.045237848330065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043141307327043</v>
+        <v>1.032963650995014</v>
       </c>
       <c r="J2">
-        <v>1.016004659199197</v>
+        <v>1.028076539021879</v>
       </c>
       <c r="K2">
-        <v>1.029220597180138</v>
+        <v>1.03715693959729</v>
       </c>
       <c r="L2">
-        <v>1.012411831311067</v>
+        <v>1.026411718795603</v>
       </c>
       <c r="M2">
-        <v>1.035477207028763</v>
+        <v>1.048006650703347</v>
       </c>
       <c r="N2">
-        <v>1.009267101778278</v>
+        <v>1.013406421555046</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9975979647046052</v>
+        <v>1.023743724085129</v>
       </c>
       <c r="D3">
-        <v>1.02098201185922</v>
+        <v>1.035016956119125</v>
       </c>
       <c r="E3">
-        <v>1.004085663326749</v>
+        <v>1.024299909772917</v>
       </c>
       <c r="F3">
-        <v>1.027948757886175</v>
+        <v>1.04605657031761</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044016265350182</v>
+        <v>1.03309378783471</v>
       </c>
       <c r="J3">
-        <v>1.018154326502771</v>
+        <v>1.028565761338694</v>
       </c>
       <c r="K3">
-        <v>1.031353282280889</v>
+        <v>1.037626231876103</v>
       </c>
       <c r="L3">
-        <v>1.014666532888971</v>
+        <v>1.026938077090544</v>
       </c>
       <c r="M3">
-        <v>1.038236094694208</v>
+        <v>1.048636753558684</v>
       </c>
       <c r="N3">
-        <v>1.009993221661456</v>
+        <v>1.013570117490231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000117647702669</v>
+        <v>1.024294745204023</v>
       </c>
       <c r="D4">
-        <v>1.022874359056743</v>
+        <v>1.035444271663311</v>
       </c>
       <c r="E4">
-        <v>1.006073738006805</v>
+        <v>1.024766293235082</v>
       </c>
       <c r="F4">
-        <v>1.03024060055479</v>
+        <v>1.046587101187107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044562101142644</v>
+        <v>1.033176842504439</v>
       </c>
       <c r="J4">
-        <v>1.019518344518702</v>
+        <v>1.02888239956211</v>
       </c>
       <c r="K4">
-        <v>1.032704332061815</v>
+        <v>1.037929642554075</v>
       </c>
       <c r="L4">
-        <v>1.016099406940902</v>
+        <v>1.027279002768743</v>
       </c>
       <c r="M4">
-        <v>1.039987249847028</v>
+        <v>1.049044583764239</v>
       </c>
       <c r="N4">
-        <v>1.010453744560853</v>
+        <v>1.013676015285077</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001166095979606</v>
+        <v>1.0245265638726</v>
       </c>
       <c r="D5">
-        <v>1.023662214162317</v>
+        <v>1.035624016373543</v>
       </c>
       <c r="E5">
-        <v>1.006902415492294</v>
+        <v>1.024962599992224</v>
       </c>
       <c r="F5">
-        <v>1.031195072068018</v>
+        <v>1.046810317005303</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044786782726833</v>
+        <v>1.033211482061958</v>
       </c>
       <c r="J5">
-        <v>1.020085491409562</v>
+        <v>1.029015531833404</v>
       </c>
       <c r="K5">
-        <v>1.033265547205383</v>
+        <v>1.038057134479515</v>
       </c>
       <c r="L5">
-        <v>1.016695713653782</v>
+        <v>1.027422407150525</v>
       </c>
       <c r="M5">
-        <v>1.040715493505743</v>
+        <v>1.049216060566596</v>
       </c>
       <c r="N5">
-        <v>1.010645170922869</v>
+        <v>1.013720528398011</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001341510154746</v>
+        <v>1.024565497134087</v>
       </c>
       <c r="D6">
-        <v>1.023794053551251</v>
+        <v>1.035654202185109</v>
       </c>
       <c r="E6">
-        <v>1.007041143320631</v>
+        <v>1.0249955747319</v>
       </c>
       <c r="F6">
-        <v>1.031354810544137</v>
+        <v>1.046847806457421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044824229169248</v>
+        <v>1.033217281954336</v>
       </c>
       <c r="J6">
-        <v>1.020180353992482</v>
+        <v>1.02903788632044</v>
       </c>
       <c r="K6">
-        <v>1.033359385511321</v>
+        <v>1.038078537262816</v>
       </c>
       <c r="L6">
-        <v>1.016795484755424</v>
+        <v>1.027446489983236</v>
       </c>
       <c r="M6">
-        <v>1.040837308896488</v>
+        <v>1.04924485369144</v>
       </c>
       <c r="N6">
-        <v>1.010677186119255</v>
+        <v>1.013728001961157</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00013169920406</v>
+        <v>1.024297842112817</v>
       </c>
       <c r="D7">
-        <v>1.02288491635371</v>
+        <v>1.035446673025392</v>
       </c>
       <c r="E7">
-        <v>1.00608483848957</v>
+        <v>1.024768915358154</v>
       </c>
       <c r="F7">
-        <v>1.030253389349825</v>
+        <v>1.046590083100543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044565122061619</v>
+        <v>1.033177306447724</v>
       </c>
       <c r="J7">
-        <v>1.01952594724592</v>
+        <v>1.028884178414624</v>
       </c>
       <c r="K7">
-        <v>1.032711857422001</v>
+        <v>1.037931346352501</v>
       </c>
       <c r="L7">
-        <v>1.016107398468034</v>
+        <v>1.027280918635528</v>
       </c>
       <c r="M7">
-        <v>1.039997011614985</v>
+        <v>1.04904687494965</v>
       </c>
       <c r="N7">
-        <v>1.01045631089384</v>
+        <v>1.013676610096899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9949820651972293</v>
+        <v>1.023180529697011</v>
       </c>
       <c r="D8">
-        <v>1.019019076040335</v>
+        <v>1.034580099343518</v>
       </c>
       <c r="E8">
-        <v>1.002026731237707</v>
+        <v>1.023823550658387</v>
       </c>
       <c r="F8">
-        <v>1.025572388454721</v>
+        <v>1.045514380059126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043441258488024</v>
+        <v>1.033007869575572</v>
       </c>
       <c r="J8">
-        <v>1.016736835207707</v>
+        <v>1.028241856940187</v>
       </c>
       <c r="K8">
-        <v>1.029947440180861</v>
+        <v>1.037315590623056</v>
       </c>
       <c r="L8">
-        <v>1.013179318972211</v>
+        <v>1.026589533512522</v>
       </c>
       <c r="M8">
-        <v>1.03641675815859</v>
+        <v>1.048219572789953</v>
       </c>
       <c r="N8">
-        <v>1.009514462130536</v>
+        <v>1.013461748134709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9855334967772793</v>
+        <v>1.021217222736984</v>
       </c>
       <c r="D9">
-        <v>1.011944685687993</v>
+        <v>1.033056466122527</v>
       </c>
       <c r="E9">
-        <v>0.9946313495727563</v>
+        <v>1.02216548547548</v>
       </c>
       <c r="F9">
-        <v>1.01701469967539</v>
+        <v>1.043624786914664</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041301593790758</v>
+        <v>1.032700503781486</v>
       </c>
       <c r="J9">
-        <v>1.01160765468467</v>
+        <v>1.027110663190856</v>
       </c>
       <c r="K9">
-        <v>1.024846896350685</v>
+        <v>1.036228676080106</v>
       </c>
       <c r="L9">
-        <v>1.007812134090741</v>
+        <v>1.025373863668907</v>
       </c>
       <c r="M9">
-        <v>1.029837627709801</v>
+        <v>1.046762690641952</v>
       </c>
       <c r="N9">
-        <v>1.007780789569576</v>
+        <v>1.013082967789169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9789583099592999</v>
+        <v>1.019912171071562</v>
       </c>
       <c r="D10">
-        <v>1.007037788480843</v>
+        <v>1.032043093792246</v>
       </c>
       <c r="E10">
-        <v>0.9895218313149459</v>
+        <v>1.021065452718867</v>
       </c>
       <c r="F10">
-        <v>1.011083678831804</v>
+        <v>1.042369167825394</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039762682397615</v>
+        <v>1.032489720758315</v>
       </c>
       <c r="J10">
-        <v>1.008032376993218</v>
+        <v>1.026357052738459</v>
       </c>
       <c r="K10">
-        <v>1.021281125587185</v>
+        <v>1.03550288975453</v>
       </c>
       <c r="L10">
-        <v>1.00408288507628</v>
+        <v>1.02456527326754</v>
       </c>
       <c r="M10">
-        <v>1.025255656724732</v>
+        <v>1.045792163400002</v>
       </c>
       <c r="N10">
-        <v>1.006571421319878</v>
+        <v>1.012830364083205</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9760398249338946</v>
+        <v>1.019347995151983</v>
       </c>
       <c r="D11">
-        <v>1.004864433404719</v>
+        <v>1.031604880971045</v>
       </c>
       <c r="E11">
-        <v>0.9872632960822358</v>
+        <v>1.020590416698637</v>
       </c>
       <c r="F11">
-        <v>1.008457616977616</v>
+        <v>1.041826471129601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039068352365019</v>
+        <v>1.032397065285407</v>
       </c>
       <c r="J11">
-        <v>1.006444499493537</v>
+        <v>1.02603087010826</v>
       </c>
       <c r="K11">
-        <v>1.019695193012984</v>
+        <v>1.035188354804632</v>
       </c>
       <c r="L11">
-        <v>1.002429472674123</v>
+        <v>1.024215602223671</v>
       </c>
       <c r="M11">
-        <v>1.023221778337216</v>
+        <v>1.045372108533324</v>
       </c>
       <c r="N11">
-        <v>1.006034128733135</v>
+        <v>1.012720970041442</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.97494451120931</v>
+        <v>1.019138574918416</v>
       </c>
       <c r="D12">
-        <v>1.004049537462981</v>
+        <v>1.031442198859117</v>
       </c>
       <c r="E12">
-        <v>0.9864171318568591</v>
+        <v>1.020414162141512</v>
       </c>
       <c r="F12">
-        <v>1.007473094890792</v>
+        <v>1.041625040909979</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038806127431448</v>
+        <v>1.032362441523011</v>
       </c>
       <c r="J12">
-        <v>1.005848464768829</v>
+        <v>1.025909733024548</v>
       </c>
       <c r="K12">
-        <v>1.019099563797367</v>
+        <v>1.035071484170041</v>
       </c>
       <c r="L12">
-        <v>1.001809268269573</v>
+        <v>1.024085788423045</v>
       </c>
       <c r="M12">
-        <v>1.02245850914786</v>
+        <v>1.045216111712624</v>
       </c>
       <c r="N12">
-        <v>1.005832423839129</v>
+        <v>1.012680334453323</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9751799781159612</v>
+        <v>1.019183489916502</v>
       </c>
       <c r="D13">
-        <v>1.004224685147688</v>
+        <v>1.0314770906376</v>
       </c>
       <c r="E13">
-        <v>0.9865989700974561</v>
+        <v>1.020451960489736</v>
       </c>
       <c r="F13">
-        <v>1.00768469585112</v>
+        <v>1.04166824148723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038862573015536</v>
+        <v>1.032369877811497</v>
       </c>
       <c r="J13">
-        <v>1.005976602222602</v>
+        <v>1.02593571633903</v>
       </c>
       <c r="K13">
-        <v>1.019227628451429</v>
+        <v>1.035096555030558</v>
       </c>
       <c r="L13">
-        <v>1.001942582337319</v>
+        <v>1.024113630752264</v>
       </c>
       <c r="M13">
-        <v>1.022622590883256</v>
+        <v>1.045249572162971</v>
       </c>
       <c r="N13">
-        <v>1.005875788020971</v>
+        <v>1.012689050997339</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9759495188283274</v>
+        <v>1.019330681548571</v>
       </c>
       <c r="D14">
-        <v>1.00479723104038</v>
+        <v>1.031591431777353</v>
       </c>
       <c r="E14">
-        <v>0.9871935015704315</v>
+        <v>1.020575843453898</v>
       </c>
       <c r="F14">
-        <v>1.008376423745248</v>
+        <v>1.041809817742408</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039046765597609</v>
+        <v>1.032394207501185</v>
       </c>
       <c r="J14">
-        <v>1.006395359607973</v>
+        <v>1.026020856429667</v>
       </c>
       <c r="K14">
-        <v>1.019646093055426</v>
+        <v>1.035178695015652</v>
       </c>
       <c r="L14">
-        <v>1.002378331373778</v>
+        <v>1.02420487034665</v>
       </c>
       <c r="M14">
-        <v>1.023158847139618</v>
+        <v>1.045359213160116</v>
       </c>
       <c r="N14">
-        <v>1.006017499702733</v>
+        <v>1.012717611124396</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9764221498996833</v>
+        <v>1.019421389746656</v>
       </c>
       <c r="D15">
-        <v>1.005148976878748</v>
+        <v>1.031661893062091</v>
       </c>
       <c r="E15">
-        <v>0.9875588422778019</v>
+        <v>1.020652197727768</v>
       </c>
       <c r="F15">
-        <v>1.00880140418869</v>
+        <v>1.041897067682249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039159676673725</v>
+        <v>1.032409170364925</v>
       </c>
       <c r="J15">
-        <v>1.006652536986234</v>
+        <v>1.026073316959218</v>
       </c>
       <c r="K15">
-        <v>1.019903048337936</v>
+        <v>1.035229299132083</v>
       </c>
       <c r="L15">
-        <v>1.002646000853997</v>
+        <v>1.024261095335663</v>
       </c>
       <c r="M15">
-        <v>1.023488209795385</v>
+        <v>1.045426770658788</v>
       </c>
       <c r="N15">
-        <v>1.00610452806817</v>
+        <v>1.012735207741021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9791504513748509</v>
+        <v>1.019949633089913</v>
       </c>
       <c r="D16">
-        <v>1.007180976289453</v>
+        <v>1.032072189001282</v>
       </c>
       <c r="E16">
-        <v>0.9896707250443032</v>
+        <v>1.021097006535509</v>
       </c>
       <c r="F16">
-        <v>1.011256709564536</v>
+        <v>1.042405205949965</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039808163602932</v>
+        <v>1.032495840874828</v>
       </c>
       <c r="J16">
-        <v>1.008136900262348</v>
+        <v>1.026378703373505</v>
       </c>
       <c r="K16">
-        <v>1.021385474804952</v>
+        <v>1.035523758947597</v>
       </c>
       <c r="L16">
-        <v>1.004191781795372</v>
+        <v>1.024588489466149</v>
       </c>
       <c r="M16">
-        <v>1.025389562421878</v>
+        <v>1.045820045206151</v>
       </c>
       <c r="N16">
-        <v>1.00660678555364</v>
+        <v>1.012837623930958</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9808423641963154</v>
+        <v>1.020281233634186</v>
       </c>
       <c r="D17">
-        <v>1.008442362459045</v>
+        <v>1.032329714514602</v>
       </c>
       <c r="E17">
-        <v>0.9909828955946053</v>
+        <v>1.021376368800764</v>
       </c>
       <c r="F17">
-        <v>1.012781091403054</v>
+        <v>1.042724215413277</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040207372846371</v>
+        <v>1.032549836670903</v>
       </c>
       <c r="J17">
-        <v>1.00905718358164</v>
+        <v>1.026570301433059</v>
       </c>
       <c r="K17">
-        <v>1.02230396817551</v>
+        <v>1.035708395947325</v>
       </c>
       <c r="L17">
-        <v>1.005150896352426</v>
+        <v>1.024793977671454</v>
       </c>
       <c r="M17">
-        <v>1.026568672497648</v>
+        <v>1.0460667879915</v>
       </c>
       <c r="N17">
-        <v>1.006918132664933</v>
+        <v>1.012901863231361</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9818223783315906</v>
+        <v>1.020474739287133</v>
       </c>
       <c r="D18">
-        <v>1.009173436683379</v>
+        <v>1.032479981018716</v>
       </c>
       <c r="E18">
-        <v>0.9917438390017858</v>
+        <v>1.021539439984225</v>
       </c>
       <c r="F18">
-        <v>1.013664679283888</v>
+        <v>1.042910384067697</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040437534320534</v>
+        <v>1.032581197823208</v>
       </c>
       <c r="J18">
-        <v>1.009590150992063</v>
+        <v>1.026682070343464</v>
       </c>
       <c r="K18">
-        <v>1.022835681340024</v>
+        <v>1.035816065952611</v>
       </c>
       <c r="L18">
-        <v>1.005706622773256</v>
+        <v>1.02491387916971</v>
       </c>
       <c r="M18">
-        <v>1.027251638771659</v>
+        <v>1.04621072708321</v>
       </c>
       <c r="N18">
-        <v>1.007098427108455</v>
+        <v>1.012939331451952</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9821553916241363</v>
+        <v>1.020540734704966</v>
       </c>
       <c r="D19">
-        <v>1.009421930891643</v>
+        <v>1.032531227493321</v>
       </c>
       <c r="E19">
-        <v>0.9920025601832336</v>
+        <v>1.021595064002974</v>
       </c>
       <c r="F19">
-        <v>1.013965028576756</v>
+        <v>1.042973878959827</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040515560529637</v>
+        <v>1.032591868469896</v>
       </c>
       <c r="J19">
-        <v>1.009771238901009</v>
+        <v>1.026720182820107</v>
       </c>
       <c r="K19">
-        <v>1.023016305658112</v>
+        <v>1.035852774251113</v>
       </c>
       <c r="L19">
-        <v>1.005895489410219</v>
+        <v>1.024954769852691</v>
       </c>
       <c r="M19">
-        <v>1.027483709387778</v>
+        <v>1.046259809627802</v>
       </c>
       <c r="N19">
-        <v>1.007159683256813</v>
+        <v>1.012952106881895</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9806615502423809</v>
+        <v>1.020245646851409</v>
       </c>
       <c r="D20">
-        <v>1.008307512974351</v>
+        <v>1.03230207863454</v>
       </c>
       <c r="E20">
-        <v>0.9908425719138232</v>
+        <v>1.021346383044584</v>
       </c>
       <c r="F20">
-        <v>1.012618117312325</v>
+        <v>1.042689978789747</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040164820593313</v>
+        <v>1.032544057255367</v>
       </c>
       <c r="J20">
-        <v>1.00895884261529</v>
+        <v>1.026549743420207</v>
       </c>
       <c r="K20">
-        <v>1.022205840930481</v>
+        <v>1.035688588785749</v>
       </c>
       <c r="L20">
-        <v>1.005048377829992</v>
+        <v>1.024771926201095</v>
       </c>
       <c r="M20">
-        <v>1.026442662618628</v>
+        <v>1.046040312930762</v>
       </c>
       <c r="N20">
-        <v>1.006884864053154</v>
+        <v>1.012894971111646</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9757232235057108</v>
+        <v>1.019287333408968</v>
       </c>
       <c r="D21">
-        <v>1.004628843321355</v>
+        <v>1.031557758671877</v>
       </c>
       <c r="E21">
-        <v>0.9870186294978882</v>
+        <v>1.02053935761162</v>
       </c>
       <c r="F21">
-        <v>1.008172981163494</v>
+        <v>1.041768122865354</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038992645700614</v>
+        <v>1.032387048733514</v>
       </c>
       <c r="J21">
-        <v>1.006272219979475</v>
+        <v>1.025995784186557</v>
       </c>
       <c r="K21">
-        <v>1.01952304831365</v>
+        <v>1.035154507884595</v>
       </c>
       <c r="L21">
-        <v>1.002250183334637</v>
+        <v>1.024178000627849</v>
       </c>
       <c r="M21">
-        <v>1.023001150797806</v>
+        <v>1.045326925769905</v>
       </c>
       <c r="N21">
-        <v>1.005975828648464</v>
+        <v>1.012709200923844</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9725528752619227</v>
+        <v>1.018685613476223</v>
       </c>
       <c r="D22">
-        <v>1.0022716936219</v>
+        <v>1.031090294739516</v>
       </c>
       <c r="E22">
-        <v>0.9845722831766578</v>
+        <v>1.020033077652655</v>
       </c>
       <c r="F22">
-        <v>1.005325371454249</v>
+        <v>1.041189392990374</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038230596194363</v>
+        <v>1.03228713166781</v>
       </c>
       <c r="J22">
-        <v>1.004546873766579</v>
+        <v>1.025647614032941</v>
       </c>
       <c r="K22">
-        <v>1.017798281747453</v>
+        <v>1.034818488846245</v>
       </c>
       <c r="L22">
-        <v>1.000455689200069</v>
+        <v>1.023804979387594</v>
       </c>
       <c r="M22">
-        <v>1.020792064770187</v>
+        <v>1.044878566881527</v>
       </c>
       <c r="N22">
-        <v>1.005391910809813</v>
+        <v>1.01259238982822</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9742399252899233</v>
+        <v>1.019004519308053</v>
       </c>
       <c r="D23">
-        <v>1.003525562696045</v>
+        <v>1.031338056335392</v>
       </c>
       <c r="E23">
-        <v>0.9858732384215972</v>
+        <v>1.020301358607829</v>
       </c>
       <c r="F23">
-        <v>1.006840081321377</v>
+        <v>1.041496104779108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038636989210814</v>
+        <v>1.032340213069714</v>
       </c>
       <c r="J23">
-        <v>1.005465028426257</v>
+        <v>1.025832173246045</v>
       </c>
       <c r="K23">
-        <v>1.018716299123744</v>
+        <v>1.034996639388703</v>
       </c>
       <c r="L23">
-        <v>1.00141040467701</v>
+        <v>1.024002686307115</v>
       </c>
       <c r="M23">
-        <v>1.021967541084688</v>
+        <v>1.045116233154382</v>
       </c>
       <c r="N23">
-        <v>1.005702658378304</v>
+        <v>1.012654314388767</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9807432734151379</v>
+        <v>1.020261726712955</v>
       </c>
       <c r="D24">
-        <v>1.008368460064859</v>
+        <v>1.032314565925669</v>
       </c>
       <c r="E24">
-        <v>0.9909059917921355</v>
+        <v>1.021359931934487</v>
       </c>
       <c r="F24">
-        <v>1.012691775437829</v>
+        <v>1.042705448550376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040184056430886</v>
+        <v>1.032546669137613</v>
       </c>
       <c r="J24">
-        <v>1.009003290446469</v>
+        <v>1.026559032661284</v>
       </c>
       <c r="K24">
-        <v>1.022250192840478</v>
+        <v>1.035697538868851</v>
       </c>
       <c r="L24">
-        <v>1.005094712981076</v>
+        <v>1.024781890176491</v>
       </c>
       <c r="M24">
-        <v>1.026499615835577</v>
+        <v>1.046052275815084</v>
       </c>
       <c r="N24">
-        <v>1.006899900746242</v>
+        <v>1.012898085368499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.988022967955164</v>
+        <v>1.021724118353664</v>
       </c>
       <c r="D25">
-        <v>1.013806092089083</v>
+        <v>1.03344994986019</v>
       </c>
       <c r="E25">
-        <v>0.9965736897313371</v>
+        <v>1.022593201023993</v>
       </c>
       <c r="F25">
-        <v>1.019265502762778</v>
+        <v>1.044112576506241</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041874158263326</v>
+        <v>1.032781003330483</v>
       </c>
       <c r="J25">
-        <v>1.012960241004576</v>
+        <v>1.027403018012414</v>
       </c>
       <c r="K25">
-        <v>1.026193801116924</v>
+        <v>1.036509883045092</v>
       </c>
       <c r="L25">
-        <v>1.009225428634074</v>
+        <v>1.02568782228751</v>
       </c>
       <c r="M25">
-        <v>1.031571930856852</v>
+        <v>1.047139208853089</v>
       </c>
       <c r="N25">
-        <v>1.008238137148477</v>
+        <v>1.013180908364897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_243/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_243/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022893260322361</v>
+        <v>0.9936317933776009</v>
       </c>
       <c r="D2">
-        <v>1.03435723317423</v>
+        <v>1.018006549377327</v>
       </c>
       <c r="E2">
-        <v>1.02358069974562</v>
+        <v>1.000965937143764</v>
       </c>
       <c r="F2">
-        <v>1.045237848330065</v>
+        <v>1.024346955311257</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032963650995014</v>
+        <v>1.043141307327044</v>
       </c>
       <c r="J2">
-        <v>1.028076539021879</v>
+        <v>1.016004659199197</v>
       </c>
       <c r="K2">
-        <v>1.03715693959729</v>
+        <v>1.029220597180139</v>
       </c>
       <c r="L2">
-        <v>1.026411718795603</v>
+        <v>1.012411831311067</v>
       </c>
       <c r="M2">
-        <v>1.048006650703347</v>
+        <v>1.035477207028764</v>
       </c>
       <c r="N2">
-        <v>1.013406421555046</v>
+        <v>1.009267101778278</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023743724085129</v>
+        <v>0.997597964704605</v>
       </c>
       <c r="D3">
-        <v>1.035016956119125</v>
+        <v>1.020982011859221</v>
       </c>
       <c r="E3">
-        <v>1.024299909772917</v>
+        <v>1.004085663326748</v>
       </c>
       <c r="F3">
-        <v>1.04605657031761</v>
+        <v>1.027948757886175</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03309378783471</v>
+        <v>1.044016265350182</v>
       </c>
       <c r="J3">
-        <v>1.028565761338694</v>
+        <v>1.018154326502771</v>
       </c>
       <c r="K3">
-        <v>1.037626231876103</v>
+        <v>1.031353282280889</v>
       </c>
       <c r="L3">
-        <v>1.026938077090544</v>
+        <v>1.014666532888971</v>
       </c>
       <c r="M3">
-        <v>1.048636753558684</v>
+        <v>1.038236094694208</v>
       </c>
       <c r="N3">
-        <v>1.013570117490231</v>
+        <v>1.009993221661456</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024294745204023</v>
+        <v>1.000117647702667</v>
       </c>
       <c r="D4">
-        <v>1.035444271663311</v>
+        <v>1.022874359056742</v>
       </c>
       <c r="E4">
-        <v>1.024766293235082</v>
+        <v>1.006073738006804</v>
       </c>
       <c r="F4">
-        <v>1.046587101187107</v>
+        <v>1.030240600554789</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033176842504439</v>
+        <v>1.044562101142644</v>
       </c>
       <c r="J4">
-        <v>1.02888239956211</v>
+        <v>1.019518344518701</v>
       </c>
       <c r="K4">
-        <v>1.037929642554075</v>
+        <v>1.032704332061814</v>
       </c>
       <c r="L4">
-        <v>1.027279002768743</v>
+        <v>1.016099406940902</v>
       </c>
       <c r="M4">
-        <v>1.049044583764239</v>
+        <v>1.039987249847027</v>
       </c>
       <c r="N4">
-        <v>1.013676015285077</v>
+        <v>1.010453744560853</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0245265638726</v>
+        <v>1.001166095979606</v>
       </c>
       <c r="D5">
-        <v>1.035624016373543</v>
+        <v>1.023662214162317</v>
       </c>
       <c r="E5">
-        <v>1.024962599992224</v>
+        <v>1.006902415492294</v>
       </c>
       <c r="F5">
-        <v>1.046810317005303</v>
+        <v>1.031195072068018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033211482061958</v>
+        <v>1.044786782726833</v>
       </c>
       <c r="J5">
-        <v>1.029015531833404</v>
+        <v>1.020085491409562</v>
       </c>
       <c r="K5">
-        <v>1.038057134479515</v>
+        <v>1.033265547205383</v>
       </c>
       <c r="L5">
-        <v>1.027422407150525</v>
+        <v>1.016695713653782</v>
       </c>
       <c r="M5">
-        <v>1.049216060566596</v>
+        <v>1.040715493505743</v>
       </c>
       <c r="N5">
-        <v>1.013720528398011</v>
+        <v>1.010645170922869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024565497134087</v>
+        <v>1.001341510154746</v>
       </c>
       <c r="D6">
-        <v>1.035654202185109</v>
+        <v>1.023794053551251</v>
       </c>
       <c r="E6">
-        <v>1.0249955747319</v>
+        <v>1.007041143320631</v>
       </c>
       <c r="F6">
-        <v>1.046847806457421</v>
+        <v>1.031354810544138</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033217281954336</v>
+        <v>1.044824229169248</v>
       </c>
       <c r="J6">
-        <v>1.02903788632044</v>
+        <v>1.020180353992482</v>
       </c>
       <c r="K6">
-        <v>1.038078537262816</v>
+        <v>1.033359385511321</v>
       </c>
       <c r="L6">
-        <v>1.027446489983236</v>
+        <v>1.016795484755424</v>
       </c>
       <c r="M6">
-        <v>1.04924485369144</v>
+        <v>1.040837308896489</v>
       </c>
       <c r="N6">
-        <v>1.013728001961157</v>
+        <v>1.010677186119255</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024297842112817</v>
+        <v>1.000131699204061</v>
       </c>
       <c r="D7">
-        <v>1.035446673025392</v>
+        <v>1.022884916353711</v>
       </c>
       <c r="E7">
-        <v>1.024768915358154</v>
+        <v>1.00608483848957</v>
       </c>
       <c r="F7">
-        <v>1.046590083100543</v>
+        <v>1.030253389349826</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033177306447724</v>
+        <v>1.044565122061619</v>
       </c>
       <c r="J7">
-        <v>1.028884178414624</v>
+        <v>1.019525947245921</v>
       </c>
       <c r="K7">
-        <v>1.037931346352501</v>
+        <v>1.032711857422002</v>
       </c>
       <c r="L7">
-        <v>1.027280918635528</v>
+        <v>1.016107398468035</v>
       </c>
       <c r="M7">
-        <v>1.04904687494965</v>
+        <v>1.039997011614985</v>
       </c>
       <c r="N7">
-        <v>1.013676610096899</v>
+        <v>1.01045631089384</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023180529697011</v>
+        <v>0.9949820651972293</v>
       </c>
       <c r="D8">
-        <v>1.034580099343518</v>
+        <v>1.019019076040335</v>
       </c>
       <c r="E8">
-        <v>1.023823550658387</v>
+        <v>1.002026731237707</v>
       </c>
       <c r="F8">
-        <v>1.045514380059126</v>
+        <v>1.025572388454721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033007869575572</v>
+        <v>1.043441258488024</v>
       </c>
       <c r="J8">
-        <v>1.028241856940187</v>
+        <v>1.016736835207707</v>
       </c>
       <c r="K8">
-        <v>1.037315590623056</v>
+        <v>1.029947440180861</v>
       </c>
       <c r="L8">
-        <v>1.026589533512522</v>
+        <v>1.013179318972211</v>
       </c>
       <c r="M8">
-        <v>1.048219572789953</v>
+        <v>1.03641675815859</v>
       </c>
       <c r="N8">
-        <v>1.013461748134709</v>
+        <v>1.009514462130536</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021217222736984</v>
+        <v>0.9855334967772792</v>
       </c>
       <c r="D9">
-        <v>1.033056466122527</v>
+        <v>1.011944685687993</v>
       </c>
       <c r="E9">
-        <v>1.02216548547548</v>
+        <v>0.994631349572756</v>
       </c>
       <c r="F9">
-        <v>1.043624786914664</v>
+        <v>1.017014699675391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032700503781486</v>
+        <v>1.041301593790758</v>
       </c>
       <c r="J9">
-        <v>1.027110663190856</v>
+        <v>1.01160765468467</v>
       </c>
       <c r="K9">
-        <v>1.036228676080106</v>
+        <v>1.024846896350685</v>
       </c>
       <c r="L9">
-        <v>1.025373863668907</v>
+        <v>1.007812134090741</v>
       </c>
       <c r="M9">
-        <v>1.046762690641952</v>
+        <v>1.029837627709801</v>
       </c>
       <c r="N9">
-        <v>1.013082967789169</v>
+        <v>1.007780789569576</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019912171071562</v>
+        <v>0.9789583099592993</v>
       </c>
       <c r="D10">
-        <v>1.032043093792246</v>
+        <v>1.007037788480842</v>
       </c>
       <c r="E10">
-        <v>1.021065452718867</v>
+        <v>0.9895218313149455</v>
       </c>
       <c r="F10">
-        <v>1.042369167825394</v>
+        <v>1.011083678831804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032489720758315</v>
+        <v>1.039762682397615</v>
       </c>
       <c r="J10">
-        <v>1.026357052738459</v>
+        <v>1.008032376993217</v>
       </c>
       <c r="K10">
-        <v>1.03550288975453</v>
+        <v>1.021281125587185</v>
       </c>
       <c r="L10">
-        <v>1.02456527326754</v>
+        <v>1.00408288507628</v>
       </c>
       <c r="M10">
-        <v>1.045792163400002</v>
+        <v>1.025255656724732</v>
       </c>
       <c r="N10">
-        <v>1.012830364083205</v>
+        <v>1.006571421319878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019347995151983</v>
+        <v>0.9760398249338955</v>
       </c>
       <c r="D11">
-        <v>1.031604880971045</v>
+        <v>1.00486443340472</v>
       </c>
       <c r="E11">
-        <v>1.020590416698637</v>
+        <v>0.9872632960822363</v>
       </c>
       <c r="F11">
-        <v>1.041826471129601</v>
+        <v>1.008457616977617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032397065285407</v>
+        <v>1.03906835236502</v>
       </c>
       <c r="J11">
-        <v>1.02603087010826</v>
+        <v>1.006444499493537</v>
       </c>
       <c r="K11">
-        <v>1.035188354804632</v>
+        <v>1.019695193012985</v>
       </c>
       <c r="L11">
-        <v>1.024215602223671</v>
+        <v>1.002429472674124</v>
       </c>
       <c r="M11">
-        <v>1.045372108533324</v>
+        <v>1.023221778337217</v>
       </c>
       <c r="N11">
-        <v>1.012720970041442</v>
+        <v>1.006034128733135</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019138574918416</v>
+        <v>0.9749445112093097</v>
       </c>
       <c r="D12">
-        <v>1.031442198859117</v>
+        <v>1.004049537462981</v>
       </c>
       <c r="E12">
-        <v>1.020414162141512</v>
+        <v>0.9864171318568588</v>
       </c>
       <c r="F12">
-        <v>1.041625040909979</v>
+        <v>1.007473094890792</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032362441523011</v>
+        <v>1.038806127431448</v>
       </c>
       <c r="J12">
-        <v>1.025909733024548</v>
+        <v>1.005848464768829</v>
       </c>
       <c r="K12">
-        <v>1.035071484170041</v>
+        <v>1.019099563797366</v>
       </c>
       <c r="L12">
-        <v>1.024085788423045</v>
+        <v>1.001809268269573</v>
       </c>
       <c r="M12">
-        <v>1.045216111712624</v>
+        <v>1.022458509147859</v>
       </c>
       <c r="N12">
-        <v>1.012680334453323</v>
+        <v>1.005832423839129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019183489916502</v>
+        <v>0.9751799781159609</v>
       </c>
       <c r="D13">
-        <v>1.0314770906376</v>
+        <v>1.004224685147688</v>
       </c>
       <c r="E13">
-        <v>1.020451960489736</v>
+        <v>0.9865989700974558</v>
       </c>
       <c r="F13">
-        <v>1.04166824148723</v>
+        <v>1.007684695851119</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032369877811497</v>
+        <v>1.038862573015536</v>
       </c>
       <c r="J13">
-        <v>1.02593571633903</v>
+        <v>1.005976602222602</v>
       </c>
       <c r="K13">
-        <v>1.035096555030558</v>
+        <v>1.019227628451429</v>
       </c>
       <c r="L13">
-        <v>1.024113630752264</v>
+        <v>1.001942582337318</v>
       </c>
       <c r="M13">
-        <v>1.045249572162971</v>
+        <v>1.022622590883256</v>
       </c>
       <c r="N13">
-        <v>1.012689050997339</v>
+        <v>1.005875788020971</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019330681548571</v>
+        <v>0.9759495188283271</v>
       </c>
       <c r="D14">
-        <v>1.031591431777353</v>
+        <v>1.00479723104038</v>
       </c>
       <c r="E14">
-        <v>1.020575843453898</v>
+        <v>0.9871935015704311</v>
       </c>
       <c r="F14">
-        <v>1.041809817742408</v>
+        <v>1.008376423745248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032394207501185</v>
+        <v>1.039046765597609</v>
       </c>
       <c r="J14">
-        <v>1.026020856429667</v>
+        <v>1.006395359607973</v>
       </c>
       <c r="K14">
-        <v>1.035178695015652</v>
+        <v>1.019646093055426</v>
       </c>
       <c r="L14">
-        <v>1.02420487034665</v>
+        <v>1.002378331373777</v>
       </c>
       <c r="M14">
-        <v>1.045359213160116</v>
+        <v>1.023158847139618</v>
       </c>
       <c r="N14">
-        <v>1.012717611124396</v>
+        <v>1.006017499702733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019421389746656</v>
+        <v>0.9764221498996833</v>
       </c>
       <c r="D15">
-        <v>1.031661893062091</v>
+        <v>1.005148976878748</v>
       </c>
       <c r="E15">
-        <v>1.020652197727768</v>
+        <v>0.9875588422778019</v>
       </c>
       <c r="F15">
-        <v>1.041897067682249</v>
+        <v>1.00880140418869</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032409170364925</v>
+        <v>1.039159676673725</v>
       </c>
       <c r="J15">
-        <v>1.026073316959218</v>
+        <v>1.006652536986233</v>
       </c>
       <c r="K15">
-        <v>1.035229299132083</v>
+        <v>1.019903048337937</v>
       </c>
       <c r="L15">
-        <v>1.024261095335663</v>
+        <v>1.002646000853997</v>
       </c>
       <c r="M15">
-        <v>1.045426770658788</v>
+        <v>1.023488209795385</v>
       </c>
       <c r="N15">
-        <v>1.012735207741021</v>
+        <v>1.006104528068171</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.019949633089913</v>
+        <v>0.97915045137485</v>
       </c>
       <c r="D16">
-        <v>1.032072189001282</v>
+        <v>1.007180976289452</v>
       </c>
       <c r="E16">
-        <v>1.021097006535509</v>
+        <v>0.9896707250443023</v>
       </c>
       <c r="F16">
-        <v>1.042405205949965</v>
+        <v>1.011256709564535</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032495840874828</v>
+        <v>1.039808163602931</v>
       </c>
       <c r="J16">
-        <v>1.026378703373505</v>
+        <v>1.008136900262347</v>
       </c>
       <c r="K16">
-        <v>1.035523758947597</v>
+        <v>1.021385474804951</v>
       </c>
       <c r="L16">
-        <v>1.024588489466149</v>
+        <v>1.004191781795372</v>
       </c>
       <c r="M16">
-        <v>1.045820045206151</v>
+        <v>1.025389562421877</v>
       </c>
       <c r="N16">
-        <v>1.012837623930958</v>
+        <v>1.00660678555364</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020281233634186</v>
+        <v>0.9808423641963153</v>
       </c>
       <c r="D17">
-        <v>1.032329714514602</v>
+        <v>1.008442362459045</v>
       </c>
       <c r="E17">
-        <v>1.021376368800764</v>
+        <v>0.990982895594605</v>
       </c>
       <c r="F17">
-        <v>1.042724215413277</v>
+        <v>1.012781091403054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032549836670903</v>
+        <v>1.040207372846371</v>
       </c>
       <c r="J17">
-        <v>1.026570301433059</v>
+        <v>1.00905718358164</v>
       </c>
       <c r="K17">
-        <v>1.035708395947325</v>
+        <v>1.022303968175511</v>
       </c>
       <c r="L17">
-        <v>1.024793977671454</v>
+        <v>1.005150896352426</v>
       </c>
       <c r="M17">
-        <v>1.0460667879915</v>
+        <v>1.026568672497648</v>
       </c>
       <c r="N17">
-        <v>1.012901863231361</v>
+        <v>1.006918132664933</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020474739287133</v>
+        <v>0.9818223783315899</v>
       </c>
       <c r="D18">
-        <v>1.032479981018716</v>
+        <v>1.009173436683378</v>
       </c>
       <c r="E18">
-        <v>1.021539439984225</v>
+        <v>0.9917438390017852</v>
       </c>
       <c r="F18">
-        <v>1.042910384067697</v>
+        <v>1.013664679283887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032581197823208</v>
+        <v>1.040437534320533</v>
       </c>
       <c r="J18">
-        <v>1.026682070343464</v>
+        <v>1.009590150992063</v>
       </c>
       <c r="K18">
-        <v>1.035816065952611</v>
+        <v>1.022835681340024</v>
       </c>
       <c r="L18">
-        <v>1.02491387916971</v>
+        <v>1.005706622773256</v>
       </c>
       <c r="M18">
-        <v>1.04621072708321</v>
+        <v>1.027251638771659</v>
       </c>
       <c r="N18">
-        <v>1.012939331451952</v>
+        <v>1.007098427108455</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020540734704966</v>
+        <v>0.9821553916241367</v>
       </c>
       <c r="D19">
-        <v>1.032531227493321</v>
+        <v>1.009421930891643</v>
       </c>
       <c r="E19">
-        <v>1.021595064002974</v>
+        <v>0.9920025601832337</v>
       </c>
       <c r="F19">
-        <v>1.042973878959827</v>
+        <v>1.013965028576756</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032591868469896</v>
+        <v>1.040515560529637</v>
       </c>
       <c r="J19">
-        <v>1.026720182820107</v>
+        <v>1.009771238901009</v>
       </c>
       <c r="K19">
-        <v>1.035852774251113</v>
+        <v>1.023016305658112</v>
       </c>
       <c r="L19">
-        <v>1.024954769852691</v>
+        <v>1.005895489410219</v>
       </c>
       <c r="M19">
-        <v>1.046259809627802</v>
+        <v>1.027483709387779</v>
       </c>
       <c r="N19">
-        <v>1.012952106881895</v>
+        <v>1.007159683256813</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020245646851409</v>
+        <v>0.9806615502423808</v>
       </c>
       <c r="D20">
-        <v>1.03230207863454</v>
+        <v>1.008307512974352</v>
       </c>
       <c r="E20">
-        <v>1.021346383044584</v>
+        <v>0.9908425719138232</v>
       </c>
       <c r="F20">
-        <v>1.042689978789747</v>
+        <v>1.012618117312325</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032544057255367</v>
+        <v>1.040164820593313</v>
       </c>
       <c r="J20">
-        <v>1.026549743420207</v>
+        <v>1.00895884261529</v>
       </c>
       <c r="K20">
-        <v>1.035688588785749</v>
+        <v>1.022205840930481</v>
       </c>
       <c r="L20">
-        <v>1.024771926201095</v>
+        <v>1.005048377829992</v>
       </c>
       <c r="M20">
-        <v>1.046040312930762</v>
+        <v>1.026442662618628</v>
       </c>
       <c r="N20">
-        <v>1.012894971111646</v>
+        <v>1.006884864053154</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019287333408968</v>
+        <v>0.9757232235057105</v>
       </c>
       <c r="D21">
-        <v>1.031557758671877</v>
+        <v>1.004628843321355</v>
       </c>
       <c r="E21">
-        <v>1.02053935761162</v>
+        <v>0.9870186294978879</v>
       </c>
       <c r="F21">
-        <v>1.041768122865354</v>
+        <v>1.008172981163493</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032387048733514</v>
+        <v>1.038992645700614</v>
       </c>
       <c r="J21">
-        <v>1.025995784186557</v>
+        <v>1.006272219979474</v>
       </c>
       <c r="K21">
-        <v>1.035154507884595</v>
+        <v>1.01952304831365</v>
       </c>
       <c r="L21">
-        <v>1.024178000627849</v>
+        <v>1.002250183334636</v>
       </c>
       <c r="M21">
-        <v>1.045326925769905</v>
+        <v>1.023001150797806</v>
       </c>
       <c r="N21">
-        <v>1.012709200923844</v>
+        <v>1.005975828648464</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018685613476223</v>
+        <v>0.9725528752619228</v>
       </c>
       <c r="D22">
-        <v>1.031090294739516</v>
+        <v>1.0022716936219</v>
       </c>
       <c r="E22">
-        <v>1.020033077652655</v>
+        <v>0.9845722831766578</v>
       </c>
       <c r="F22">
-        <v>1.041189392990374</v>
+        <v>1.005325371454249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03228713166781</v>
+        <v>1.038230596194362</v>
       </c>
       <c r="J22">
-        <v>1.025647614032941</v>
+        <v>1.004546873766579</v>
       </c>
       <c r="K22">
-        <v>1.034818488846245</v>
+        <v>1.017798281747453</v>
       </c>
       <c r="L22">
-        <v>1.023804979387594</v>
+        <v>1.000455689200069</v>
       </c>
       <c r="M22">
-        <v>1.044878566881527</v>
+        <v>1.020792064770187</v>
       </c>
       <c r="N22">
-        <v>1.01259238982822</v>
+        <v>1.005391910809813</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019004519308053</v>
+        <v>0.9742399252899218</v>
       </c>
       <c r="D23">
-        <v>1.031338056335392</v>
+        <v>1.003525562696044</v>
       </c>
       <c r="E23">
-        <v>1.020301358607829</v>
+        <v>0.9858732384215956</v>
       </c>
       <c r="F23">
-        <v>1.041496104779108</v>
+        <v>1.006840081321375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032340213069714</v>
+        <v>1.038636989210814</v>
       </c>
       <c r="J23">
-        <v>1.025832173246045</v>
+        <v>1.005465028426255</v>
       </c>
       <c r="K23">
-        <v>1.034996639388703</v>
+        <v>1.018716299123742</v>
       </c>
       <c r="L23">
-        <v>1.024002686307115</v>
+        <v>1.001410404677009</v>
       </c>
       <c r="M23">
-        <v>1.045116233154382</v>
+        <v>1.021967541084686</v>
       </c>
       <c r="N23">
-        <v>1.012654314388767</v>
+        <v>1.005702658378303</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020261726712955</v>
+        <v>0.9807432734151385</v>
       </c>
       <c r="D24">
-        <v>1.032314565925669</v>
+        <v>1.008368460064859</v>
       </c>
       <c r="E24">
-        <v>1.021359931934487</v>
+        <v>0.9909059917921355</v>
       </c>
       <c r="F24">
-        <v>1.042705448550376</v>
+        <v>1.012691775437829</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032546669137613</v>
+        <v>1.040184056430886</v>
       </c>
       <c r="J24">
-        <v>1.026559032661284</v>
+        <v>1.009003290446469</v>
       </c>
       <c r="K24">
-        <v>1.035697538868851</v>
+        <v>1.022250192840478</v>
       </c>
       <c r="L24">
-        <v>1.024781890176491</v>
+        <v>1.005094712981076</v>
       </c>
       <c r="M24">
-        <v>1.046052275815084</v>
+        <v>1.026499615835577</v>
       </c>
       <c r="N24">
-        <v>1.012898085368499</v>
+        <v>1.006899900746242</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021724118353664</v>
+        <v>0.9880229679551635</v>
       </c>
       <c r="D25">
-        <v>1.03344994986019</v>
+        <v>1.013806092089083</v>
       </c>
       <c r="E25">
-        <v>1.022593201023993</v>
+        <v>0.9965736897313368</v>
       </c>
       <c r="F25">
-        <v>1.044112576506241</v>
+        <v>1.019265502762778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032781003330483</v>
+        <v>1.041874158263325</v>
       </c>
       <c r="J25">
-        <v>1.027403018012414</v>
+        <v>1.012960241004576</v>
       </c>
       <c r="K25">
-        <v>1.036509883045092</v>
+        <v>1.026193801116924</v>
       </c>
       <c r="L25">
-        <v>1.02568782228751</v>
+        <v>1.009225428634074</v>
       </c>
       <c r="M25">
-        <v>1.047139208853089</v>
+        <v>1.031571930856852</v>
       </c>
       <c r="N25">
-        <v>1.013180908364897</v>
+        <v>1.008238137148477</v>
       </c>
     </row>
   </sheetData>
